--- a/Vinny114.xlsx
+++ b/Vinny114.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="140" windowWidth="31500" windowHeight="20580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="-20" windowWidth="31500" windowHeight="20660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -452,9 +452,6 @@
     <t>Internal: Workshop Document</t>
   </si>
   <si>
-    <t>Internal: Cultural Timeline &amp; Trend Aggregator</t>
-  </si>
-  <si>
     <t>Internal: Process Documentation</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>Anheuser Busch</t>
+  </si>
+  <si>
+    <t>Internal: Cultural Timeline &amp; Trends</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC526"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226:F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -2874,16 +2874,16 @@
         <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>47</v>
@@ -18862,16 +18862,16 @@
         <v>47</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G226" s="9" t="s">
         <v>47</v>
@@ -19040,16 +19040,16 @@
         <v>47</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G228" s="9" t="s">
         <v>47</v>
@@ -19218,16 +19218,16 @@
         <v>47</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>47</v>
@@ -22644,16 +22644,16 @@
         <v>47</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G276" s="9" t="s">
         <v>47</v>
@@ -26070,16 +26070,16 @@
         <v>47</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G322" s="9" t="s">
         <v>47</v>
@@ -29674,16 +29674,16 @@
         <v>47</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F370" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>47</v>
@@ -33278,16 +33278,16 @@
         <v>47</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F418" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G418" s="9" t="s">
         <v>47</v>
@@ -35080,16 +35080,16 @@
         <v>47</v>
       </c>
       <c r="C442" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D442" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E442" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F442" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G442" s="20" t="s">
         <v>47</v>
@@ -38061,7 +38061,7 @@
     </row>
     <row r="482" spans="1:29" ht="22" customHeight="1">
       <c r="A482" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B482" s="14" t="s">
         <v>55</v>
@@ -39854,10 +39854,10 @@
     </row>
     <row r="506" spans="1:29" ht="22" customHeight="1">
       <c r="A506" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B506" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B506" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="C506" s="14" t="s">
         <v>21</v>
@@ -41660,8 +41660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="K345" sqref="K345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -60537,7 +60537,7 @@
         <v>no</v>
       </c>
       <c r="K255" s="2" t="str">
-        <v>Internal: Cultural Timeline &amp; Trend Aggregator</v>
+        <v>Internal: Cultural Timeline &amp; Trends</v>
       </c>
       <c r="L255" s="2">
         <v>0.25</v>
@@ -60611,7 +60611,7 @@
         <v>no</v>
       </c>
       <c r="K256" s="2" t="str">
-        <v>Internal: Cultural Timeline &amp; Trend Aggregator</v>
+        <v>Internal: Cultural Timeline &amp; Trends</v>
       </c>
       <c r="L256" s="2">
         <v>0.25</v>
@@ -60685,7 +60685,7 @@
         <v>no</v>
       </c>
       <c r="K257" s="2" t="str">
-        <v>Internal: Cultural Timeline &amp; Trend Aggregator</v>
+        <v>Internal: Cultural Timeline &amp; Trends</v>
       </c>
       <c r="L257" s="2">
         <v>0.25</v>
@@ -60759,7 +60759,7 @@
         <v>no</v>
       </c>
       <c r="K258" s="2" t="str">
-        <v>Internal: Cultural Timeline &amp; Trend Aggregator</v>
+        <v>Internal: Cultural Timeline &amp; Trends</v>
       </c>
       <c r="L258" s="2">
         <v>0.25</v>
